--- a/natmiOut/OldD7/LR-pairs_lrc2p/Vwf-Itga2b.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Vwf-Itga2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.5560178204389</v>
+        <v>28.89432766666667</v>
       </c>
       <c r="H2">
-        <v>28.5560178204389</v>
+        <v>86.68298300000001</v>
       </c>
       <c r="I2">
-        <v>0.9418508667748055</v>
+        <v>0.9344268072004271</v>
       </c>
       <c r="J2">
-        <v>0.9418508667748055</v>
+        <v>0.934426807200427</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.590723693016302</v>
+        <v>0.6763496666666667</v>
       </c>
       <c r="N2">
-        <v>0.590723693016302</v>
+        <v>2.029049</v>
       </c>
       <c r="O2">
-        <v>0.1269716826572026</v>
+        <v>0.1221603374409683</v>
       </c>
       <c r="P2">
-        <v>0.1269716826572026</v>
+        <v>0.1221603374409683</v>
       </c>
       <c r="Q2">
-        <v>16.868716304729</v>
+        <v>19.54266888590745</v>
       </c>
       <c r="R2">
-        <v>16.868716304729</v>
+        <v>175.884019973167</v>
       </c>
       <c r="S2">
-        <v>0.1195883893665418</v>
+        <v>0.1141498940814908</v>
       </c>
       <c r="T2">
-        <v>0.1195883893665418</v>
+        <v>0.1141498940814908</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.5560178204389</v>
+        <v>28.89432766666667</v>
       </c>
       <c r="H3">
-        <v>28.5560178204389</v>
+        <v>86.68298300000001</v>
       </c>
       <c r="I3">
-        <v>0.9418508667748055</v>
+        <v>0.9344268072004271</v>
       </c>
       <c r="J3">
-        <v>0.9418508667748055</v>
+        <v>0.934426807200427</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.40237919234935</v>
+        <v>3.724503</v>
       </c>
       <c r="N3">
-        <v>3.40237919234935</v>
+        <v>11.173509</v>
       </c>
       <c r="O3">
-        <v>0.7313162078950657</v>
+        <v>0.672709052289864</v>
       </c>
       <c r="P3">
-        <v>0.7313162078950657</v>
+        <v>0.6727090522898641</v>
       </c>
       <c r="Q3">
-        <v>97.15840084861856</v>
+        <v>107.617010077483</v>
       </c>
       <c r="R3">
-        <v>97.15840084861856</v>
+        <v>968.5530906973472</v>
       </c>
       <c r="S3">
-        <v>0.6887908042924314</v>
+        <v>0.6285973719060428</v>
       </c>
       <c r="T3">
-        <v>0.6887908042924314</v>
+        <v>0.6285973719060428</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.5560178204389</v>
+        <v>28.89432766666667</v>
       </c>
       <c r="H4">
-        <v>28.5560178204389</v>
+        <v>86.68298300000001</v>
       </c>
       <c r="I4">
-        <v>0.9418508667748055</v>
+        <v>0.9344268072004271</v>
       </c>
       <c r="J4">
-        <v>0.9418508667748055</v>
+        <v>0.934426807200427</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.659302128523424</v>
+        <v>0.31493</v>
       </c>
       <c r="N4">
-        <v>0.659302128523424</v>
+        <v>0.94479</v>
       </c>
       <c r="O4">
-        <v>0.1417121094477316</v>
+        <v>0.05688175357561716</v>
       </c>
       <c r="P4">
-        <v>0.1417121094477316</v>
+        <v>0.05688175357561717</v>
       </c>
       <c r="Q4">
-        <v>18.82704333116819</v>
+        <v>9.099690612063334</v>
       </c>
       <c r="R4">
-        <v>18.82704333116819</v>
+        <v>81.89721550857001</v>
       </c>
       <c r="S4">
-        <v>0.1334716731158321</v>
+        <v>0.05315183538162542</v>
       </c>
       <c r="T4">
-        <v>0.1334716731158321</v>
+        <v>0.05315183538162543</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.161072955130022</v>
+        <v>28.89432766666667</v>
       </c>
       <c r="H5">
-        <v>0.161072955130022</v>
+        <v>86.68298300000001</v>
       </c>
       <c r="I5">
-        <v>0.005312600074601679</v>
+        <v>0.9344268072004271</v>
       </c>
       <c r="J5">
-        <v>0.005312600074601679</v>
+        <v>0.934426807200427</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.590723693016302</v>
+        <v>0.8207906666666666</v>
       </c>
       <c r="N5">
-        <v>0.590723693016302</v>
+        <v>2.462372</v>
       </c>
       <c r="O5">
-        <v>0.1269716826572026</v>
+        <v>0.1482488566935505</v>
       </c>
       <c r="P5">
-        <v>0.1269716826572026</v>
+        <v>0.1482488566935505</v>
       </c>
       <c r="Q5">
-        <v>0.09514961089945571</v>
+        <v>23.71619446840844</v>
       </c>
       <c r="R5">
-        <v>0.09514961089945571</v>
+        <v>213.445750215676</v>
       </c>
       <c r="S5">
-        <v>0.0006745497707569552</v>
+        <v>0.1385277058312681</v>
       </c>
       <c r="T5">
-        <v>0.0006745497707569552</v>
+        <v>0.1385277058312681</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.161072955130022</v>
+        <v>0.1893213333333333</v>
       </c>
       <c r="H6">
-        <v>0.161072955130022</v>
+        <v>0.567964</v>
       </c>
       <c r="I6">
-        <v>0.005312600074601679</v>
+        <v>0.006122548725910637</v>
       </c>
       <c r="J6">
-        <v>0.005312600074601679</v>
+        <v>0.006122548725910637</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.40237919234935</v>
+        <v>0.6763496666666667</v>
       </c>
       <c r="N6">
-        <v>3.40237919234935</v>
+        <v>2.029049</v>
       </c>
       <c r="O6">
-        <v>0.7313162078950657</v>
+        <v>0.1221603374409683</v>
       </c>
       <c r="P6">
-        <v>0.7313162078950657</v>
+        <v>0.1221603374409683</v>
       </c>
       <c r="Q6">
-        <v>0.5480312709846074</v>
+        <v>0.1280474206928889</v>
       </c>
       <c r="R6">
-        <v>0.5480312709846074</v>
+        <v>1.152426786236</v>
       </c>
       <c r="S6">
-        <v>0.003885190540620743</v>
+        <v>0.0007479326183560138</v>
       </c>
       <c r="T6">
-        <v>0.003885190540620743</v>
+        <v>0.0007479326183560139</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.161072955130022</v>
+        <v>0.1893213333333333</v>
       </c>
       <c r="H7">
-        <v>0.161072955130022</v>
+        <v>0.567964</v>
       </c>
       <c r="I7">
-        <v>0.005312600074601679</v>
+        <v>0.006122548725910637</v>
       </c>
       <c r="J7">
-        <v>0.005312600074601679</v>
+        <v>0.006122548725910637</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.659302128523424</v>
+        <v>3.724503</v>
       </c>
       <c r="N7">
-        <v>0.659302128523424</v>
+        <v>11.173509</v>
       </c>
       <c r="O7">
-        <v>0.1417121094477316</v>
+        <v>0.672709052289864</v>
       </c>
       <c r="P7">
-        <v>0.1417121094477316</v>
+        <v>0.6727090522898641</v>
       </c>
       <c r="Q7">
-        <v>0.1061957421647815</v>
+        <v>0.7051278739640001</v>
       </c>
       <c r="R7">
-        <v>0.1061957421647815</v>
+        <v>6.346150865676001</v>
       </c>
       <c r="S7">
-        <v>0.00075285976322398</v>
+        <v>0.004118693951005859</v>
       </c>
       <c r="T7">
-        <v>0.00075285976322398</v>
+        <v>0.00411869395100586</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.21442403020924</v>
+        <v>0.1893213333333333</v>
       </c>
       <c r="H8">
-        <v>1.21442403020924</v>
+        <v>0.567964</v>
       </c>
       <c r="I8">
-        <v>0.04005482601520331</v>
+        <v>0.006122548725910637</v>
       </c>
       <c r="J8">
-        <v>0.04005482601520331</v>
+        <v>0.006122548725910637</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.590723693016302</v>
+        <v>0.31493</v>
       </c>
       <c r="N8">
-        <v>0.590723693016302</v>
+        <v>0.94479</v>
       </c>
       <c r="O8">
-        <v>0.1269716826572026</v>
+        <v>0.05688175357561716</v>
       </c>
       <c r="P8">
-        <v>0.1269716826572026</v>
+        <v>0.05688175357561717</v>
       </c>
       <c r="Q8">
-        <v>0.7173890480129433</v>
+        <v>0.05962296750666667</v>
       </c>
       <c r="R8">
-        <v>0.7173890480129433</v>
+        <v>0.5366067075600001</v>
       </c>
       <c r="S8">
-        <v>0.005085828657691857</v>
+        <v>0.0003482613078819576</v>
       </c>
       <c r="T8">
-        <v>0.005085828657691857</v>
+        <v>0.0003482613078819577</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.21442403020924</v>
+        <v>0.1893213333333333</v>
       </c>
       <c r="H9">
-        <v>1.21442403020924</v>
+        <v>0.567964</v>
       </c>
       <c r="I9">
-        <v>0.04005482601520331</v>
+        <v>0.006122548725910637</v>
       </c>
       <c r="J9">
-        <v>0.04005482601520331</v>
+        <v>0.006122548725910637</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.40237919234935</v>
+        <v>0.8207906666666666</v>
       </c>
       <c r="N9">
-        <v>3.40237919234935</v>
+        <v>2.462372</v>
       </c>
       <c r="O9">
-        <v>0.7313162078950657</v>
+        <v>0.1482488566935505</v>
       </c>
       <c r="P9">
-        <v>0.7313162078950657</v>
+        <v>0.1482488566935505</v>
       </c>
       <c r="Q9">
-        <v>4.131931051072956</v>
+        <v>0.1553931834008889</v>
       </c>
       <c r="R9">
-        <v>4.131931051072956</v>
+        <v>1.398538650608</v>
       </c>
       <c r="S9">
-        <v>0.02929274346933511</v>
+        <v>0.000907660848666806</v>
       </c>
       <c r="T9">
-        <v>0.02929274346933511</v>
+        <v>0.0009076608486668062</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.21442403020924</v>
+        <v>1.339639</v>
       </c>
       <c r="H10">
-        <v>1.21442403020924</v>
+        <v>4.018917</v>
       </c>
       <c r="I10">
-        <v>0.04005482601520331</v>
+        <v>0.04332319505794487</v>
       </c>
       <c r="J10">
-        <v>0.04005482601520331</v>
+        <v>0.04332319505794486</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.659302128523424</v>
+        <v>0.6763496666666667</v>
       </c>
       <c r="N10">
-        <v>0.659302128523424</v>
+        <v>2.029049</v>
       </c>
       <c r="O10">
-        <v>0.1417121094477316</v>
+        <v>0.1221603374409683</v>
       </c>
       <c r="P10">
-        <v>0.1417121094477316</v>
+        <v>0.1221603374409683</v>
       </c>
       <c r="Q10">
-        <v>0.8006723480469469</v>
+        <v>0.9060643911036668</v>
       </c>
       <c r="R10">
-        <v>0.8006723480469469</v>
+        <v>8.154579519933</v>
       </c>
       <c r="S10">
-        <v>0.005676253888176337</v>
+        <v>0.005292376127299435</v>
       </c>
       <c r="T10">
-        <v>0.005676253888176337</v>
+        <v>0.005292376127299435</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.387529140344346</v>
+        <v>1.339639</v>
       </c>
       <c r="H11">
-        <v>0.387529140344346</v>
+        <v>4.018917</v>
       </c>
       <c r="I11">
-        <v>0.01278170713538964</v>
+        <v>0.04332319505794487</v>
       </c>
       <c r="J11">
-        <v>0.01278170713538964</v>
+        <v>0.04332319505794486</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.590723693016302</v>
+        <v>3.724503</v>
       </c>
       <c r="N11">
-        <v>0.590723693016302</v>
+        <v>11.173509</v>
       </c>
       <c r="O11">
-        <v>0.1269716826572026</v>
+        <v>0.672709052289864</v>
       </c>
       <c r="P11">
-        <v>0.1269716826572026</v>
+        <v>0.6727090522898641</v>
       </c>
       <c r="Q11">
-        <v>0.2289226449356448</v>
+        <v>4.989489474417001</v>
       </c>
       <c r="R11">
-        <v>0.2289226449356448</v>
+        <v>44.905405269753</v>
       </c>
       <c r="S11">
-        <v>0.001622914862211995</v>
+        <v>0.02914390548959901</v>
       </c>
       <c r="T11">
-        <v>0.001622914862211995</v>
+        <v>0.02914390548959901</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.387529140344346</v>
+        <v>1.339639</v>
       </c>
       <c r="H12">
-        <v>0.387529140344346</v>
+        <v>4.018917</v>
       </c>
       <c r="I12">
-        <v>0.01278170713538964</v>
+        <v>0.04332319505794487</v>
       </c>
       <c r="J12">
-        <v>0.01278170713538964</v>
+        <v>0.04332319505794486</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>3.40237919234935</v>
+        <v>0.31493</v>
       </c>
       <c r="N12">
-        <v>3.40237919234935</v>
+        <v>0.94479</v>
       </c>
       <c r="O12">
-        <v>0.7313162078950657</v>
+        <v>0.05688175357561716</v>
       </c>
       <c r="P12">
-        <v>0.7313162078950657</v>
+        <v>0.05688175357561717</v>
       </c>
       <c r="Q12">
-        <v>1.318521083536634</v>
+        <v>0.42189251027</v>
       </c>
       <c r="R12">
-        <v>1.318521083536634</v>
+        <v>3.79703259243</v>
       </c>
       <c r="S12">
-        <v>0.009347469592678452</v>
+        <v>0.002464299305394415</v>
       </c>
       <c r="T12">
-        <v>0.009347469592678452</v>
+        <v>0.002464299305394415</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.387529140344346</v>
+        <v>1.339639</v>
       </c>
       <c r="H13">
-        <v>0.387529140344346</v>
+        <v>4.018917</v>
       </c>
       <c r="I13">
-        <v>0.01278170713538964</v>
+        <v>0.04332319505794487</v>
       </c>
       <c r="J13">
-        <v>0.01278170713538964</v>
+        <v>0.04332319505794486</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.659302128523424</v>
+        <v>0.8207906666666666</v>
       </c>
       <c r="N13">
-        <v>0.659302128523424</v>
+        <v>2.462372</v>
       </c>
       <c r="O13">
-        <v>0.1417121094477316</v>
+        <v>0.1482488566935505</v>
       </c>
       <c r="P13">
-        <v>0.1417121094477316</v>
+        <v>0.1482488566935505</v>
       </c>
       <c r="Q13">
-        <v>0.25549878709388</v>
+        <v>1.099563187902667</v>
       </c>
       <c r="R13">
-        <v>0.25549878709388</v>
+        <v>9.896068691123999</v>
       </c>
       <c r="S13">
-        <v>0.001811322680499188</v>
+        <v>0.006422614135652003</v>
       </c>
       <c r="T13">
-        <v>0.001811322680499188</v>
+        <v>0.006422614135652003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.4986926666666666</v>
+      </c>
+      <c r="H14">
+        <v>1.496078</v>
+      </c>
+      <c r="I14">
+        <v>0.01612744901571743</v>
+      </c>
+      <c r="J14">
+        <v>0.01612744901571742</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.6763496666666667</v>
+      </c>
+      <c r="N14">
+        <v>2.029049</v>
+      </c>
+      <c r="O14">
+        <v>0.1221603374409683</v>
+      </c>
+      <c r="P14">
+        <v>0.1221603374409683</v>
+      </c>
+      <c r="Q14">
+        <v>0.3372906188691111</v>
+      </c>
+      <c r="R14">
+        <v>3.035615569822</v>
+      </c>
+      <c r="S14">
+        <v>0.001970134613822053</v>
+      </c>
+      <c r="T14">
+        <v>0.001970134613822053</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.4986926666666666</v>
+      </c>
+      <c r="H15">
+        <v>1.496078</v>
+      </c>
+      <c r="I15">
+        <v>0.01612744901571743</v>
+      </c>
+      <c r="J15">
+        <v>0.01612744901571742</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.724503</v>
+      </c>
+      <c r="N15">
+        <v>11.173509</v>
+      </c>
+      <c r="O15">
+        <v>0.672709052289864</v>
+      </c>
+      <c r="P15">
+        <v>0.6727090522898641</v>
+      </c>
+      <c r="Q15">
+        <v>1.857382333078</v>
+      </c>
+      <c r="R15">
+        <v>16.716440997702</v>
+      </c>
+      <c r="S15">
+        <v>0.01084908094321637</v>
+      </c>
+      <c r="T15">
+        <v>0.01084908094321637</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.4986926666666666</v>
+      </c>
+      <c r="H16">
+        <v>1.496078</v>
+      </c>
+      <c r="I16">
+        <v>0.01612744901571743</v>
+      </c>
+      <c r="J16">
+        <v>0.01612744901571742</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.31493</v>
+      </c>
+      <c r="N16">
+        <v>0.94479</v>
+      </c>
+      <c r="O16">
+        <v>0.05688175357561716</v>
+      </c>
+      <c r="P16">
+        <v>0.05688175357561717</v>
+      </c>
+      <c r="Q16">
+        <v>0.1570532815133333</v>
+      </c>
+      <c r="R16">
+        <v>1.41347953362</v>
+      </c>
+      <c r="S16">
+        <v>0.0009173575807153681</v>
+      </c>
+      <c r="T16">
+        <v>0.0009173575807153681</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4986926666666666</v>
+      </c>
+      <c r="H17">
+        <v>1.496078</v>
+      </c>
+      <c r="I17">
+        <v>0.01612744901571743</v>
+      </c>
+      <c r="J17">
+        <v>0.01612744901571742</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.8207906666666666</v>
+      </c>
+      <c r="N17">
+        <v>2.462372</v>
+      </c>
+      <c r="O17">
+        <v>0.1482488566935505</v>
+      </c>
+      <c r="P17">
+        <v>0.1482488566935505</v>
+      </c>
+      <c r="Q17">
+        <v>0.409322286335111</v>
+      </c>
+      <c r="R17">
+        <v>3.683900577015999</v>
+      </c>
+      <c r="S17">
+        <v>0.002390875877963634</v>
+      </c>
+      <c r="T17">
+        <v>0.002390875877963634</v>
       </c>
     </row>
   </sheetData>
